--- a/提案書/別紙2_機能要件一覧.xlsx
+++ b/提案書/別紙2_機能要件一覧.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C198978-8A3E-47C6-9D0F-10FE4B676B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ADF74-D26E-41F8-8AB8-EBB24C8929C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
+    <workbookView xWindow="31260" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件一覧" sheetId="1" r:id="rId1"/>
     <sheet name="(参考)現行ECシステムの業務要件" sheetId="3" r:id="rId2"/>
-    <sheet name="(参考)提供資料" sheetId="2" r:id="rId3"/>
+    <sheet name="(参考)RFP_新ECシステムの機能案" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="211">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -1447,19 +1447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員情報表示</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員情報表示(自身)</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -1516,16 +1503,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アクセス状況確認</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>優先度(暫定)</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
@@ -1822,22 +1799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文した商品の領収書pdfを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -2158,16 +2119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通部分</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイトロゴ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2399,26 +2350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ移行</t>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顧客情報登録(CSV)</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>保有しているポイントを利用し商品を値引きできる。ハウスポイントとECサイトポイントを統合</t>
     <rPh sb="0" eb="2">
       <t>ホユウ</t>
@@ -2846,34 +2777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各種情報をCSV出力できる。セグメント別購買層の分析に利用する</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウバイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顧客からの問い合わせを確認し、返信できる</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -2903,19 +2806,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CVR確認等を行う</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Facebook/Instagram広告を設定できる</t>
     <rPh sb="18" eb="20">
       <t>コウコク</t>
@@ -2946,98 +2836,377 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顧客情報をCSV登録できる</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
+    <t>配送する日付と時間を指定できる</t>
+    <rPh sb="0" eb="2">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配送伝票を印刷できる</t>
+    <rPh sb="0" eb="2">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要情報を入力して登録する。メールで認証を確認後、ログイン可能となる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配送する日付と時間を指定できる</t>
-    <rPh sb="0" eb="2">
-      <t>ハイソウ</t>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通部分(ヘッダー)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通部分(サイドメニュー)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通部分(フッター)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用規約</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用規約を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文した商品の領収書のPDFを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配送伝票を印刷できる</t>
-    <rPh sb="0" eb="2">
-      <t>ハイソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンピョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納品書を表示・印刷できる</t>
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書のPDFを表示できる</t>
     <rPh sb="0" eb="3">
       <t>ノウヒンショ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収書のPDFを表示できる</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト管理機能</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種情報をCSV出力できる。GA4を活用したセグメント別購買層の分析に利用する</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール通知</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定時</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文キャンセル時</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配達完了時</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の注文が確定した時にメールを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が出荷前の商品をキャンセルした時にメールを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品発送時</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金確認時</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客がコンビニ支払いまたは銀行振込での支払いを選択した場合に入金が確認できた時にメールを送信する</t>
+    <rPh sb="44" eb="46">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を発送した時にメールを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の配送が完了した時にメールを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報表示(管理者用)</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>領収書を表示・印刷できる</t>
-    <rPh sb="0" eb="3">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要情報を入力して登録する。メールで認証を確認後、ログイン可能となる</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カノウ</t>
+    <rPh sb="7" eb="11">
+      <t>カンリシャヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5106,11 +5275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29044791-A0F5-4839-809B-43289B48AD8D}">
-  <dimension ref="B2:F82"/>
+  <dimension ref="B2:F90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5132,10 +5301,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5152,7 +5321,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="93.75">
@@ -5178,7 +5347,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -5191,7 +5360,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -5200,13 +5369,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -5219,7 +5388,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -5232,7 +5401,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -5245,7 +5414,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -5258,20 +5427,20 @@
         <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -5279,29 +5448,29 @@
         <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -5314,40 +5483,40 @@
         <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>52</v>
@@ -5360,110 +5529,114 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="10" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="D24" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>50</v>
@@ -5472,20 +5645,20 @@
         <v>52</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -5498,42 +5671,42 @@
         <v>53</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="7"/>
-      <c r="C31" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="10" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="D32" s="10" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>52</v>
@@ -5546,694 +5719,800 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="10" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="10" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D36" s="10" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="10" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="10" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="10" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="10" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D50" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="7"/>
-      <c r="C55" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="7"/>
-      <c r="C56" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="7"/>
-      <c r="C57" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="7"/>
-      <c r="C58" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="7"/>
-      <c r="C59" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="10" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="7"/>
-      <c r="C60" s="12" t="s">
-        <v>61</v>
+      <c r="C60" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="D61" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="D62" s="10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D63" s="10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="D64" s="10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>96</v>
+      <c r="B65" s="7"/>
+      <c r="C65" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="7"/>
-      <c r="C66" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="10" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="7"/>
-      <c r="C67" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="7"/>
-      <c r="C68" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="C68" s="7"/>
       <c r="D68" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="10" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="7"/>
-      <c r="C70" s="10" t="s">
-        <v>99</v>
+      <c r="C70" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="7"/>
-      <c r="C71" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="10" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="7"/>
-      <c r="C72" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C72" s="7"/>
       <c r="D72" s="10" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="7"/>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="C73" s="7"/>
       <c r="D73" s="10" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="7"/>
-      <c r="C74" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="10" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C75" s="10" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="7"/>
-      <c r="C76" s="12" t="s">
-        <v>72</v>
+      <c r="C76" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="D77" s="10" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="7"/>
-      <c r="C78" s="12" t="s">
-        <v>77</v>
+      <c r="C78" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="D80" s="10" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="D81" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="7"/>
+      <c r="C82" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="7"/>
+      <c r="C83" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="7"/>
+      <c r="C84" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="7"/>
+      <c r="C85" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="7"/>
+      <c r="C86" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="7"/>
+      <c r="C87" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E90" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>192</v>
+      <c r="F90" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6293,7 +6572,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/提案書/別紙2_機能要件一覧.xlsx
+++ b/提案書/別紙2_機能要件一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ADF74-D26E-41F8-8AB8-EBB24C8929C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF19DD-84B2-489D-86CC-312B4F30FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -1365,10 +1365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ECサイトでユーザーが注文した商品の受注情報を、カスタマーサービス部メンバーが確認できる機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受注確認</t>
     <rPh sb="2" eb="4">
       <t>カクニン</t>
@@ -1586,44 +1582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特定のユーザーを対象にクーポンを配布できる機能</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーからの問い合わせを受けたCS部メンバーが商品の注文をキャンセルできる</t>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顧客が決済を完了した後、自動的に出荷データを物流システムに連携する</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -2077,16 +2035,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイトからのお知らせを表示する</t>
-    <rPh sb="7" eb="8">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示言語切り替え</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -2498,25 +2446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーの住所まで配送した場合の送料を表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハイソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウリョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示中の商品に対する口コミ・レビューを表示する</t>
     <rPh sb="0" eb="3">
       <t>ヒョウジチュウ</t>
@@ -2893,16 +2822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品名</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -3207,6 +3126,222 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>カンリシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーポン通知</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用可能なクーポンを通知する</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトからのお知らせ（クーポン含む）を表示する</t>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧(検索結果画面)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページネーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の検索結果が多い場合にページめくりの機能を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ(クーポン等)のポップアップを表示する</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客からの問い合わせを受けたCS部メンバーが商品の注文をキャンセルできる</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の顧客を対象にクーポンを配布できる機能</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客の住所まで配送した場合の送料を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECサイトで顧客が注文した商品の受注情報を、カスタマーサービス部メンバーが確認できる機能</t>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ユーザ管理</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限設定</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者アカウントを追加・削除したり、権限設定を変更できる</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5275,11 +5410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29044791-A0F5-4839-809B-43289B48AD8D}">
-  <dimension ref="B2:F90"/>
+  <dimension ref="B2:F94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5301,10 +5436,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -5321,7 +5456,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="93.75">
@@ -5347,7 +5482,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -5360,7 +5495,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -5369,26 +5504,26 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -5401,7 +5536,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -5414,1105 +5549,1159 @@
         <v>52</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="D14" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="10" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7"/>
-      <c r="C21" s="12" t="s">
-        <v>190</v>
-      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="D23" s="10" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>
-      <c r="C24" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="10" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="D26" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>
-      <c r="C27" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="10" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="D29" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="10" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="D34" s="10" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7"/>
-      <c r="C36" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="10" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D39" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="10" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="10" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="10" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="10" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="10" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D53" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="7"/>
-      <c r="C60" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="7"/>
-      <c r="C61" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="7"/>
-      <c r="C62" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="7"/>
       <c r="C63" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="7"/>
       <c r="C64" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="7"/>
-      <c r="C65" s="12" t="s">
-        <v>61</v>
+      <c r="C65" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D66" s="10" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="D67" s="10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="7"/>
-      <c r="C70" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="C70" s="7"/>
       <c r="D70" s="10" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="10" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="10" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="C73" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="D73" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="10" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="7"/>
-      <c r="C76" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="C76" s="7"/>
       <c r="D76" s="10" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="7"/>
-      <c r="C77" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="10" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
-        <v>68</v>
+      <c r="B78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="C79" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="D79" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="7"/>
       <c r="C80" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="7"/>
-      <c r="C81" s="10" t="s">
-        <v>69</v>
+      <c r="C81" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="7"/>
-      <c r="C82" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="C82" s="7"/>
       <c r="D82" s="10" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="7"/>
       <c r="C83" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="7"/>
       <c r="C84" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="7"/>
       <c r="C85" s="10" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="7"/>
-      <c r="C86" s="12" t="s">
-        <v>72</v>
+      <c r="C86" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="7"/>
-      <c r="C87" s="12" t="s">
-        <v>77</v>
+      <c r="C87" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D88" s="10" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="C89" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="D89" s="10" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D90" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="8"/>
+      <c r="C94" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EFF46D-13BF-46C3-BD74-0E5DF4627848}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/提案書/別紙2_機能要件一覧.xlsx
+++ b/提案書/別紙2_機能要件一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF19DD-84B2-489D-86CC-312B4F30FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B51AB0-26E0-4050-87AF-0DEF815F21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="204">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -165,16 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員機能</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -991,13 +981,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決済</t>
     <rPh sb="0" eb="2">
       <t>ケッサイ</t>
@@ -1140,10 +1123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショップデザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お知らせ機能</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
@@ -1285,54 +1264,22 @@
     <t>指定日・指定時間</t>
   </si>
   <si>
-    <t>配送伝票印刷</t>
-  </si>
-  <si>
     <t>納品書</t>
   </si>
   <si>
     <t>領収書</t>
   </si>
   <si>
-    <t>バックエンド(管理画面)</t>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受注管理</t>
   </si>
   <si>
     <t>在庫管理</t>
   </si>
   <si>
-    <t>売上管理</t>
-  </si>
-  <si>
     <t>問合せ管理</t>
   </si>
   <si>
     <t>アクセス解析</t>
-  </si>
-  <si>
-    <t>Google広告</t>
-  </si>
-  <si>
-    <t>Facebook/Instagram広告</t>
-  </si>
-  <si>
-    <t>LINEショッピング</t>
-  </si>
-  <si>
-    <t>Yahoo広告</t>
-  </si>
-  <si>
-    <t>マーケティング</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品価格</t>
@@ -1486,19 +1433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上情報表示</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>優先度(暫定)</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
@@ -1536,16 +1470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発注管理</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト管理</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -1560,56 +1484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売り上げ分析は販売管理システムで実施</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顧客が決済を完了した後、自動的に出荷データを物流システムに連携する</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュッカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブツリュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャンペーンやカテゴリの導線、お知らせ情報を設置する</t>
     <rPh sb="12" eb="14">
       <t>ドウセン</t>
@@ -1626,25 +1500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顧客情報や受注情報を確認</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カート表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -1652,154 +1507,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自身の住所、氏名、電話番号、メールアドレス、会員ランクを表示できる</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自身の住所、氏名、電話番号、メールアドレスを編集できる</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みのメールアドレス宛にパスワードリセットのメールを送信</t>
+    <t>登録したメールアドレスとパスワードでログインする</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アテ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録したメールアドレスとパスワードでログインする</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去に注文した商品の履歴を閲覧する</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定期購入している商品を閲覧する</t>
-    <rPh sb="0" eb="2">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>エツラン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>閲覧中の商品や過去の購入履歴、顧客層等の情報をもとにおすすめ商品を表示</t>
-    <rPh sb="0" eb="2">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1946,19 +1663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出荷データ連携機能</t>
-    <rPh sb="0" eb="2">
-      <t>シュッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プライバシーポリシー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2107,16 +1811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パンくずリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2130,28 +1824,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品画像を配置。複数枚掲載可能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>フクスウマイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2204,24 +1876,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品名を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2298,25 +1953,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保有しているポイントを利用し商品を値引きできる。ハウスポイントとECサイトポイントを統合</t>
-    <rPh sb="0" eb="2">
-      <t>ホユウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ネビ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品に別のカラーが存在する場合に表示する</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -2331,22 +1967,6 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品のサイズと在庫の有無を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2639,19 +2259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出荷前の注文をキャンセルできる</t>
-    <rPh sb="0" eb="2">
-      <t>シュッカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配布されているクーポンを利用し、値引き価格で商品を購入できる</t>
     <rPh sb="0" eb="2">
       <t>ハイフ</t>
@@ -2725,46 +2332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Google広告を設定できる</t>
-    <rPh sb="6" eb="8">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Facebook/Instagram広告を設定できる</t>
-    <rPh sb="18" eb="20">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LINEショッピング広告を設定できる</t>
-    <rPh sb="10" eb="12">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yahoo広告を設定できる</t>
-    <rPh sb="5" eb="7">
-      <t>コウコク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配送する日付と時間を指定できる</t>
     <rPh sb="0" eb="2">
       <t>ハイソウ</t>
@@ -2781,19 +2348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配送伝票を印刷できる</t>
-    <rPh sb="0" eb="2">
-      <t>ハイソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンピョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必要情報を入力して登録する。メールで認証を確認後、ログイン可能となる</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
@@ -2880,42 +2434,6 @@
       <t>キヤク</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文した商品の領収書のPDFを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納品書のPDFを表示できる</t>
-    <rPh sb="0" eb="3">
-      <t>ノウヒンショ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>領収書のPDFを表示できる</t>
-    <rPh sb="0" eb="3">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2931,37 +2449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各種情報をCSV出力できる。GA4を活用したセグメント別購買層の分析に利用する</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウバイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メール通知</t>
     <rPh sb="3" eb="5">
       <t>ツウチ</t>
@@ -3137,19 +2624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用可能なクーポンを通知する</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイトからのお知らせ（クーポン含む）を表示する</t>
     <rPh sb="7" eb="8">
       <t>シ</t>
@@ -3342,6 +2816,526 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書のPDFを表示できる　商品と一緒に封入するか選択できる</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フウニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収書のPDFを表示できる　商品と一緒に封入するか選択できる</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報や受注情報を確認
+問い合わせの日付や内容を記録できるメモが必要　別権限にしたい</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種情報(顧客セグメント分析に役立つ情報)をCSV出力できる。GA4を活用したセグメント別購買層の分析に利用する</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用機能</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みのメールアドレス宛にパスワードリセットのメールを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アテ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受取管理</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り状況確認機能</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が出荷前の注文をキャンセルできる</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が保有しているポイントを利用し商品を値引きできる。ハウスポイントとECサイトポイントを統合</t>
+    <rPh sb="3" eb="5">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ネビ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物流システムから顧客の商品受け取り状況を取得し、確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ・在庫</t>
+    <rPh sb="4" eb="6">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客用機能</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした顧客自身の住所、氏名、電話番号、メールアドレス、会員ランクを表示できる</t>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした顧客自身の住所、氏名、電話番号、メールアドレスを編集できる</t>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が過去に注文した商品の履歴を閲覧する</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が定期購入している商品を閲覧する</t>
+    <rPh sb="3" eb="5">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が利用可能なクーポンを通知する</t>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客が過去に注文した商品の領収書のPDFを表示する</t>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧中の商品や過去の購入履歴、顧客層等の情報をもとにおすすめ商品を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品画像を配置する。複数枚掲載可能</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フクスウマイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品のサイズと在庫の有無を表示する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　在庫量は〇×△で表示する</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3350,7 +3344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3434,6 +3428,30 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Apple Color Emoji"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3523,7 +3541,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3559,6 +3577,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5410,11 +5443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29044791-A0F5-4839-809B-43289B48AD8D}">
-  <dimension ref="B2:F94"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5436,15 +5469,15 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="12" t="s">
-        <v>13</v>
+      <c r="B3" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>2</v>
@@ -5453,10 +5486,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="93.75">
@@ -5466,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>8</v>
@@ -5479,10 +5512,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -5492,10 +5525,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -5504,26 +5537,26 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -5533,10 +5566,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -5546,23 +5579,23 @@
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -5572,53 +5605,51 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7"/>
+      <c r="C14" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -5628,735 +5659,733 @@
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="10" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="10" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7"/>
       <c r="C39" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>152</v>
+      <c r="D42" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E53" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="7"/>
       <c r="C63" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="7"/>
       <c r="C64" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="7"/>
       <c r="C65" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="7"/>
       <c r="C66" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="7"/>
       <c r="C67" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="7"/>
       <c r="C68" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>180</v>
@@ -6364,344 +6393,262 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
+      <c r="C72" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="D72" s="10" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="7"/>
-      <c r="C73" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="C73" s="7"/>
       <c r="D73" s="10" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="10" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="10" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="10" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D77" s="10" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7"/>
       <c r="C79" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="7"/>
-      <c r="C80" s="10" t="s">
-        <v>95</v>
+      <c r="C80" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="7"/>
-      <c r="C81" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="C81" s="7"/>
       <c r="D81" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>213</v>
+      <c r="C82" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="7"/>
       <c r="C83" s="10" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="7"/>
       <c r="C84" s="10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="37.5">
       <c r="B85" s="7"/>
       <c r="C85" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>101</v>
+        <v>50</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="7"/>
       <c r="C86" s="10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="7"/>
-      <c r="C87" s="10" t="s">
-        <v>70</v>
+      <c r="C87" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="7"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="10" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="7"/>
-      <c r="C89" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="7"/>
-      <c r="C90" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="8"/>
-      <c r="C94" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6727,26 +6674,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="160.5">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="400.5">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/提案書/別紙2_機能要件一覧.xlsx
+++ b/提案書/別紙2_機能要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B51AB0-26E0-4050-87AF-0DEF815F21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47B1BE-D391-4384-88BE-3FF774B35BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -3339,12 +3339,65 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>使用する外部連携API/バッチ</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数連携日次バッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基盤システムの商品情報が格納されているDBを直接参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文情報連携API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル情報連携API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受取状況確認API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数取得API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種決済完了時：出荷データ連携API</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3453,6 +3506,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3541,7 +3601,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3592,6 +3652,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5443,11 +5518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29044791-A0F5-4839-809B-43289B48AD8D}">
-  <dimension ref="B2:F88"/>
+  <dimension ref="B2:G88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5455,10 +5530,11 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.5" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5474,8 +5550,11 @@
       <c r="F2" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="16" t="s">
         <v>193</v>
       </c>
@@ -5491,8 +5570,9 @@
       <c r="F3" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="93.75">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" ht="93.75">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="10" t="s">
@@ -5504,8 +5584,9 @@
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="10" t="s">
@@ -5517,8 +5598,9 @@
       <c r="F5" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
@@ -5530,8 +5612,9 @@
       <c r="F6" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="7"/>
       <c r="C7" s="12" t="s">
         <v>3</v>
@@ -5545,8 +5628,9 @@
       <c r="F7" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
@@ -5558,8 +5642,9 @@
       <c r="F8" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="10" t="s">
@@ -5571,8 +5656,11 @@
       <c r="F9" s="10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="G9" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="10" t="s">
@@ -5584,8 +5672,9 @@
       <c r="F10" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10" t="s">
@@ -5597,8 +5686,9 @@
       <c r="F11" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="10" t="s">
@@ -5610,8 +5700,9 @@
       <c r="F12" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
@@ -5623,8 +5714,9 @@
       <c r="F13" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="7"/>
       <c r="C14" s="12" t="s">
         <v>148</v>
@@ -5638,8 +5730,9 @@
       <c r="F14" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
@@ -5651,8 +5744,9 @@
       <c r="F15" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="10" t="s">
@@ -5664,8 +5758,9 @@
       <c r="F16" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
@@ -5677,8 +5772,9 @@
       <c r="F17" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
@@ -5690,8 +5786,9 @@
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
@@ -5703,8 +5800,9 @@
       <c r="F19" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
@@ -5716,8 +5814,9 @@
       <c r="F20" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
@@ -5729,8 +5828,9 @@
       <c r="F21" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
@@ -5742,8 +5842,9 @@
       <c r="F22" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
         <v>149</v>
@@ -5757,8 +5858,9 @@
       <c r="F23" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="10" t="s">
@@ -5770,8 +5872,9 @@
       <c r="F24" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
@@ -5783,8 +5886,9 @@
       <c r="F25" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
         <v>150</v>
@@ -5798,8 +5902,9 @@
       <c r="F26" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="10" t="s">
@@ -5811,8 +5916,9 @@
       <c r="F27" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
@@ -5824,8 +5930,9 @@
       <c r="F28" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
         <v>122</v>
@@ -5839,8 +5946,9 @@
       <c r="F29" s="10" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
@@ -5852,8 +5960,9 @@
       <c r="F30" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
@@ -5865,8 +5974,9 @@
       <c r="F31" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="10" t="s">
@@ -5878,8 +5988,9 @@
       <c r="F32" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -5891,8 +6002,9 @@
       <c r="F33" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>168</v>
@@ -5906,8 +6018,9 @@
       <c r="F34" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
@@ -5919,8 +6032,9 @@
       <c r="F35" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="10" t="s">
@@ -5932,8 +6046,9 @@
       <c r="F36" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
@@ -5945,8 +6060,9 @@
       <c r="F37" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
@@ -5958,8 +6074,9 @@
       <c r="F38" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="7"/>
       <c r="C39" s="12" t="s">
         <v>51</v>
@@ -5973,8 +6090,9 @@
       <c r="F39" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
@@ -5986,8 +6104,9 @@
       <c r="F40" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="10" t="s">
@@ -5999,8 +6118,9 @@
       <c r="F41" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="17" t="s">
@@ -6012,8 +6132,11 @@
       <c r="F42" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="10" t="s">
@@ -6025,8 +6148,9 @@
       <c r="F43" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="10" t="s">
@@ -6038,8 +6162,9 @@
       <c r="F44" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="10" t="s">
@@ -6051,8 +6176,9 @@
       <c r="F45" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="10" t="s">
@@ -6064,8 +6190,9 @@
       <c r="F46" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="10" t="s">
@@ -6077,8 +6204,9 @@
       <c r="F47" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="10" t="s">
@@ -6090,8 +6218,9 @@
       <c r="F48" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="10" t="s">
@@ -6103,8 +6232,9 @@
       <c r="F49" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="10" t="s">
@@ -6116,8 +6246,9 @@
       <c r="F50" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="10" t="s">
@@ -6129,8 +6260,9 @@
       <c r="F51" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="10" t="s">
@@ -6142,8 +6274,9 @@
       <c r="F52" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="7"/>
       <c r="C53" s="12" t="s">
         <v>19</v>
@@ -6157,8 +6290,11 @@
       <c r="F53" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="10" t="s">
@@ -6170,8 +6306,9 @@
       <c r="F54" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="10" t="s">
@@ -6183,8 +6320,9 @@
       <c r="F55" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="10" t="s">
@@ -6196,8 +6334,9 @@
       <c r="F56" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="10" t="s">
@@ -6209,8 +6348,9 @@
       <c r="F57" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="10" t="s">
@@ -6222,8 +6362,9 @@
       <c r="F58" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="10" t="s">
@@ -6235,8 +6376,9 @@
       <c r="F59" s="10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="10" t="s">
@@ -6248,8 +6390,9 @@
       <c r="F60" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="10" t="s">
@@ -6261,8 +6404,9 @@
       <c r="F61" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
@@ -6274,8 +6418,9 @@
       <c r="F62" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="7"/>
       <c r="C63" s="10" t="s">
         <v>31</v>
@@ -6289,8 +6434,9 @@
       <c r="F63" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="7"/>
       <c r="C64" s="10" t="s">
         <v>33</v>
@@ -6304,8 +6450,9 @@
       <c r="F64" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="7"/>
       <c r="C65" s="10" t="s">
         <v>34</v>
@@ -6319,8 +6466,9 @@
       <c r="F65" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="7"/>
       <c r="C66" s="10" t="s">
         <v>35</v>
@@ -6334,8 +6482,9 @@
       <c r="F66" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="7"/>
       <c r="C67" s="10" t="s">
         <v>45</v>
@@ -6349,8 +6498,11 @@
       <c r="F67" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="7"/>
       <c r="C68" s="12" t="s">
         <v>58</v>
@@ -6364,8 +6516,9 @@
       <c r="F68" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="10" t="s">
@@ -6377,8 +6530,9 @@
       <c r="F69" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="10" t="s">
@@ -6390,8 +6544,9 @@
       <c r="F70" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="10" t="s">
@@ -6403,8 +6558,9 @@
       <c r="F71" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="7"/>
       <c r="C72" s="12" t="s">
         <v>154</v>
@@ -6418,8 +6574,9 @@
       <c r="F72" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="10" t="s">
@@ -6431,8 +6588,9 @@
       <c r="F73" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="10" t="s">
@@ -6444,8 +6602,9 @@
       <c r="F74" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="10" t="s">
@@ -6457,8 +6616,9 @@
       <c r="F75" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="10" t="s">
@@ -6470,8 +6630,9 @@
       <c r="F76" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="2:7" ht="37.5">
       <c r="B77" s="15" t="s">
         <v>184</v>
       </c>
@@ -6487,8 +6648,11 @@
       <c r="F77" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="7"/>
       <c r="C78" s="10" t="s">
         <v>82</v>
@@ -6502,8 +6666,9 @@
       <c r="F78" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="7"/>
       <c r="C79" s="10" t="s">
         <v>83</v>
@@ -6517,8 +6682,9 @@
       <c r="F79" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
         <v>63</v>
@@ -6532,8 +6698,11 @@
       <c r="F80" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="10" t="s">
@@ -6545,8 +6714,11 @@
       <c r="F81" s="10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="G81" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="7"/>
       <c r="C82" s="13" t="s">
         <v>187</v>
@@ -6560,8 +6732,11 @@
       <c r="F82" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="7"/>
       <c r="C83" s="10" t="s">
         <v>64</v>
@@ -6575,8 +6750,11 @@
       <c r="F83" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="7"/>
       <c r="C84" s="10" t="s">
         <v>84</v>
@@ -6590,8 +6768,9 @@
       <c r="F84" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="37.5">
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7" ht="37.5">
       <c r="B85" s="7"/>
       <c r="C85" s="10" t="s">
         <v>85</v>
@@ -6605,8 +6784,9 @@
       <c r="F85" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="7"/>
       <c r="C86" s="10" t="s">
         <v>65</v>
@@ -6620,8 +6800,9 @@
       <c r="F86" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="7"/>
       <c r="C87" s="12" t="s">
         <v>66</v>
@@ -6635,8 +6816,9 @@
       <c r="F87" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="8"/>
       <c r="C88" s="10" t="s">
         <v>177</v>
@@ -6650,6 +6832,7 @@
       <c r="F88" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="G88" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6662,7 +6845,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="16.5"/>

--- a/提案書/別紙2_機能要件一覧.xlsx
+++ b/提案書/別紙2_機能要件一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47B1BE-D391-4384-88BE-3FF774B35BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDE097-2495-4D3E-9FD5-D88628AA1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282C8BED-5A60-4CCA-8C72-C7B214E11AB9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -1349,34 +1349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文確定前にEC在庫数を確認し、購入可否を判定する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会員情報編集(自身)</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -1631,25 +1603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ECサイトで販売する商品を登録・削除する機能</t>
-    <rPh sb="6" eb="8">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品登録・削除</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -3294,28 +3247,165 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>商品のサイズと在庫の有無を表示する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　在庫量は〇×△で表示する</t>
-    </r>
+    <t>使用する外部連携API/バッチ</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数連携日次バッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基盤システムの商品情報が格納されているDBを直接参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル情報連携API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受取状況確認API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数取得API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種決済完了時：出荷データ連携API</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文機能</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに追加されている商品を注文する</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文情報連携API
+在庫数取得API</t>
+    <rPh sb="10" eb="13">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーからの問い合わせ時に在庫を確認する</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基盤システムの商品情報が格納されているDBを直接参照
+在庫数連携日次バッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECサイトで販売する商品を登録・削除・参照する機能
+商品一覧や、顧客側ページで掲載している情報を参照することができる</t>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品のサイズと在庫の有無を表示する　在庫量は〇×△で表示する</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
@@ -3336,59 +3426,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用する外部連携API/バッチ</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫数連携日次バッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基盤システムの商品情報が格納されているDBを直接参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文情報連携API</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンセル情報連携API</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受取状況確認API</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫数取得API</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各種決済完了時：出荷データ連携API</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3397,7 +3434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3484,15 +3521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3501,14 +3530,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -3601,7 +3622,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3618,13 +3639,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3636,37 +3651,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5518,11 +5518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29044791-A0F5-4839-809B-43289B48AD8D}">
-  <dimension ref="B2:G88"/>
+  <dimension ref="B2:G89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5531,1308 +5531,1328 @@
     <col min="3" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="96.5" customWidth="1"/>
-    <col min="7" max="7" width="31.25" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="93.75">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7" ht="37.5">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7" ht="37.5">
+      <c r="B39" s="14"/>
+      <c r="C39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:7" ht="37.5">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="14"/>
+      <c r="C54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="14"/>
+      <c r="C64" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="14"/>
+      <c r="C65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="14"/>
+      <c r="C66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="14"/>
+      <c r="C67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="14"/>
+      <c r="C68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="14"/>
+      <c r="C69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="14"/>
+      <c r="C73" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="2:7" ht="56.25">
+      <c r="B78" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="D78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="14"/>
+      <c r="C79" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="14"/>
+      <c r="C80" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" ht="93.75">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
+    <row r="83" spans="2:7">
+      <c r="B83" s="14"/>
+      <c r="C83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10" t="s">
+      <c r="E83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="14"/>
+      <c r="C84" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="14"/>
+      <c r="C85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="2:7" ht="37.5">
+      <c r="B86" s="14"/>
+      <c r="C86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="14"/>
+      <c r="C87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="7"/>
-      <c r="C14" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="7"/>
-      <c r="C23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="7"/>
-      <c r="C29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="7"/>
-      <c r="C39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="E87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="14"/>
+      <c r="C88" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="15"/>
+      <c r="C89" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="7"/>
-      <c r="C53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="7"/>
-      <c r="C63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="7"/>
-      <c r="C64" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="7"/>
-      <c r="C65" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="7"/>
-      <c r="C66" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="7"/>
-      <c r="C67" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="7"/>
-      <c r="C68" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="7"/>
-      <c r="C72" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="2:7" ht="37.5">
-      <c r="B77" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="7"/>
-      <c r="C78" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="7"/>
-      <c r="C79" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="D89" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G80" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="7"/>
-      <c r="C82" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="7"/>
-      <c r="C83" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="7"/>
-      <c r="C84" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" spans="2:7" ht="37.5">
-      <c r="B85" s="7"/>
-      <c r="C85" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="20"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="7"/>
-      <c r="C86" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="7"/>
-      <c r="C87" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="8"/>
-      <c r="C88" s="10" t="s">
+      <c r="E89" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G88" s="13"/>
+      <c r="G89" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
